--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntf-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntf-Lifr.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H2">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I2">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J2">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N2">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O2">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P2">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q2">
-        <v>6.151993916566667</v>
+        <v>22.68072974061656</v>
       </c>
       <c r="R2">
-        <v>55.3679452491</v>
+        <v>204.126567665549</v>
       </c>
       <c r="S2">
-        <v>0.01307230978813048</v>
+        <v>0.03934493888251878</v>
       </c>
       <c r="T2">
-        <v>0.01307230978813049</v>
+        <v>0.03934493888251878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H3">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I3">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J3">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>44.512854</v>
       </c>
       <c r="O3">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P3">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q3">
-        <v>3.532490634713334</v>
+        <v>16.58987638945533</v>
       </c>
       <c r="R3">
-        <v>31.79241571242</v>
+        <v>149.308887505098</v>
       </c>
       <c r="S3">
-        <v>0.007506153700232119</v>
+        <v>0.02877895376720438</v>
       </c>
       <c r="T3">
-        <v>0.007506153700232119</v>
+        <v>0.02877895376720438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H4">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I4">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J4">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N4">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O4">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P4">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q4">
-        <v>2.308415008948889</v>
+        <v>16.19284136361911</v>
       </c>
       <c r="R4">
-        <v>20.77573508054</v>
+        <v>145.735572272572</v>
       </c>
       <c r="S4">
-        <v>0.004905127756269113</v>
+        <v>0.02809020525671132</v>
       </c>
       <c r="T4">
-        <v>0.004905127756269112</v>
+        <v>0.02809020525671132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H5">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I5">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J5">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N5">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O5">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P5">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q5">
-        <v>3.635995576571111</v>
+        <v>4.231215767242112</v>
       </c>
       <c r="R5">
-        <v>32.72396018913999</v>
+        <v>38.08094190517901</v>
       </c>
       <c r="S5">
-        <v>0.007726090306626298</v>
+        <v>0.007340016289809428</v>
       </c>
       <c r="T5">
-        <v>0.007726090306626297</v>
+        <v>0.007340016289809428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H6">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I6">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J6">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N6">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O6">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P6">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q6">
-        <v>1.270112510797778</v>
+        <v>4.528634805053779</v>
       </c>
       <c r="R6">
-        <v>11.43101259718</v>
+        <v>40.75771324548401</v>
       </c>
       <c r="S6">
-        <v>0.002698849256371636</v>
+        <v>0.00785595797241948</v>
       </c>
       <c r="T6">
-        <v>0.002698849256371636</v>
+        <v>0.00785595797241948</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H7">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I7">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J7">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N7">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O7">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P7">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q7">
-        <v>6.948531384972223</v>
+        <v>7.519632024533222</v>
       </c>
       <c r="R7">
-        <v>62.53678246475</v>
+        <v>67.67668822079901</v>
       </c>
       <c r="S7">
-        <v>0.01476486421618521</v>
+        <v>0.01304453012790266</v>
       </c>
       <c r="T7">
-        <v>0.01476486421618521</v>
+        <v>0.01304453012790266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I8">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J8">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N8">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O8">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P8">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q8">
-        <v>7.175213066323334</v>
+        <v>5.632663373980112</v>
       </c>
       <c r="R8">
-        <v>64.57691759691001</v>
+        <v>50.693970365821</v>
       </c>
       <c r="S8">
-        <v>0.01524653783324394</v>
+        <v>0.009771149285297423</v>
       </c>
       <c r="T8">
-        <v>0.01524653783324395</v>
+        <v>0.009771149285297424</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I9">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J9">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>44.512854</v>
       </c>
       <c r="O9">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P9">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q9">
         <v>4.120025686404666</v>
@@ -1013,10 +1013,10 @@
         <v>37.080231177642</v>
       </c>
       <c r="S9">
-        <v>0.00875460100223802</v>
+        <v>0.007147131537646568</v>
       </c>
       <c r="T9">
-        <v>0.00875460100223802</v>
+        <v>0.007147131537646569</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I10">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J10">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N10">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O10">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P10">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q10">
-        <v>2.692357918317112</v>
+        <v>4.021423715754223</v>
       </c>
       <c r="R10">
-        <v>24.231221264854</v>
+        <v>36.192813441788</v>
       </c>
       <c r="S10">
-        <v>0.005720964169680026</v>
+        <v>0.006976083755970026</v>
       </c>
       <c r="T10">
-        <v>0.005720964169680026</v>
+        <v>0.006976083755970026</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I11">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J11">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N11">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O11">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P11">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q11">
-        <v>4.240745898634889</v>
+        <v>1.050804553121222</v>
       </c>
       <c r="R11">
-        <v>38.166713087714</v>
+        <v>9.457240978091003</v>
       </c>
       <c r="S11">
-        <v>0.00901111816291217</v>
+        <v>0.001822862023966917</v>
       </c>
       <c r="T11">
-        <v>0.00901111816291217</v>
+        <v>0.001822862023966917</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I12">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J12">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N12">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O12">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P12">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q12">
-        <v>1.481361653924222</v>
+        <v>1.124667314159556</v>
       </c>
       <c r="R12">
-        <v>13.332254885318</v>
+        <v>10.122005827436</v>
       </c>
       <c r="S12">
-        <v>0.003147730428700096</v>
+        <v>0.001950993960283897</v>
       </c>
       <c r="T12">
-        <v>0.003147730428700096</v>
+        <v>0.001950993960283897</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I13">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J13">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N13">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O13">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P13">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q13">
-        <v>8.104233174052778</v>
+        <v>1.867468832563445</v>
       </c>
       <c r="R13">
-        <v>72.93809856647501</v>
+        <v>16.807219493071</v>
       </c>
       <c r="S13">
-        <v>0.01722060328459915</v>
+        <v>0.003239553926284739</v>
       </c>
       <c r="T13">
-        <v>0.01722060328459915</v>
+        <v>0.003239553926284739</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H14">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I14">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J14">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N14">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O14">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P14">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q14">
-        <v>18.53283968302334</v>
+        <v>53.51800026432656</v>
       </c>
       <c r="R14">
-        <v>166.79555714721</v>
+        <v>481.662002378939</v>
       </c>
       <c r="S14">
-        <v>0.0393802440112692</v>
+        <v>0.09283927252762685</v>
       </c>
       <c r="T14">
-        <v>0.0393802440112692</v>
+        <v>0.09283927252762685</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H15">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I15">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J15">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>44.512854</v>
       </c>
       <c r="O15">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P15">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q15">
-        <v>10.64160392594467</v>
+        <v>39.14587489687533</v>
       </c>
       <c r="R15">
-        <v>95.774435333502</v>
+        <v>352.312874071878</v>
       </c>
       <c r="S15">
-        <v>0.02261223678845405</v>
+        <v>0.06790751765637047</v>
       </c>
       <c r="T15">
-        <v>0.02261223678845405</v>
+        <v>0.06790751765637047</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H16">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I16">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J16">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N16">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O16">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P16">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q16">
-        <v>6.954084458297113</v>
+        <v>38.20902141549912</v>
       </c>
       <c r="R16">
-        <v>62.58676012467401</v>
+        <v>343.881192739492</v>
       </c>
       <c r="S16">
-        <v>0.01477666388565232</v>
+        <v>0.0662823299579071</v>
       </c>
       <c r="T16">
-        <v>0.01477666388565232</v>
+        <v>0.0662823299579071</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H17">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I17">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J17">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N17">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O17">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P17">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q17">
-        <v>10.95341185681489</v>
+        <v>9.984079398652113</v>
       </c>
       <c r="R17">
-        <v>98.580706711334</v>
+        <v>89.85671458786902</v>
       </c>
       <c r="S17">
-        <v>0.02327479431403208</v>
+        <v>0.01731968054955112</v>
       </c>
       <c r="T17">
-        <v>0.02327479431403208</v>
+        <v>0.01731968054955112</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H18">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I18">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J18">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N18">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O18">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P18">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q18">
-        <v>3.826205269584223</v>
+        <v>10.68587657741378</v>
       </c>
       <c r="R18">
-        <v>34.43584742625801</v>
+        <v>96.17288919672401</v>
       </c>
       <c r="S18">
-        <v>0.008130264963736535</v>
+        <v>0.01853710906362816</v>
       </c>
       <c r="T18">
-        <v>0.008130264963736535</v>
+        <v>0.01853710906362816</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H19">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I19">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J19">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N19">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O19">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P19">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q19">
-        <v>20.93240336980278</v>
+        <v>17.74350619574322</v>
       </c>
       <c r="R19">
-        <v>188.391630328225</v>
+        <v>159.691555761689</v>
       </c>
       <c r="S19">
-        <v>0.04447905267319897</v>
+        <v>0.0307801898270903</v>
       </c>
       <c r="T19">
-        <v>0.04447905267319897</v>
+        <v>0.0307801898270903</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H20">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I20">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J20">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N20">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O20">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P20">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q20">
-        <v>19.19345786683667</v>
+        <v>33.02781571228789</v>
       </c>
       <c r="R20">
-        <v>172.74112080153</v>
+        <v>297.250341410591</v>
       </c>
       <c r="S20">
-        <v>0.04078398492317496</v>
+        <v>0.05729433776973946</v>
       </c>
       <c r="T20">
-        <v>0.04078398492317497</v>
+        <v>0.05729433776973946</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H21">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I21">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J21">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>44.512854</v>
       </c>
       <c r="O21">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P21">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q21">
-        <v>11.02093257598733</v>
+        <v>24.15827825413133</v>
       </c>
       <c r="R21">
-        <v>99.18839318388601</v>
+        <v>217.424504287182</v>
       </c>
       <c r="S21">
-        <v>0.02341826840879064</v>
+        <v>0.04190808639254306</v>
       </c>
       <c r="T21">
-        <v>0.02341826840879064</v>
+        <v>0.04190808639254307</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H22">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I22">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J22">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N22">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O22">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P22">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q22">
-        <v>7.201968469786891</v>
+        <v>23.58011345014978</v>
       </c>
       <c r="R22">
-        <v>64.81771622808202</v>
+        <v>212.221021051348</v>
       </c>
       <c r="S22">
-        <v>0.01530339012005134</v>
+        <v>0.04090512664932366</v>
       </c>
       <c r="T22">
-        <v>0.01530339012005134</v>
+        <v>0.04090512664932365</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H23">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I23">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J23">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N23">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O23">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P23">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q23">
-        <v>11.34385515482911</v>
+        <v>6.161521970306779</v>
       </c>
       <c r="R23">
-        <v>102.094696393462</v>
+        <v>55.45369773276101</v>
       </c>
       <c r="S23">
-        <v>0.02410444333767574</v>
+        <v>0.01068857607834741</v>
       </c>
       <c r="T23">
-        <v>0.02410444333767574</v>
+        <v>0.01068857607834741</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H24">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I24">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J24">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N24">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O24">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P24">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q24">
-        <v>3.962593476643779</v>
+        <v>6.594625370528446</v>
       </c>
       <c r="R24">
-        <v>35.663341289794</v>
+        <v>59.35162833475601</v>
       </c>
       <c r="S24">
-        <v>0.008420074888504018</v>
+        <v>0.01143989347449876</v>
       </c>
       <c r="T24">
-        <v>0.008420074888504018</v>
+        <v>0.01143989347449876</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H25">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I25">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J25">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N25">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O25">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P25">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q25">
-        <v>21.67855595804723</v>
+        <v>10.95013359670456</v>
       </c>
       <c r="R25">
-        <v>195.107003622425</v>
+        <v>98.551202370341</v>
       </c>
       <c r="S25">
-        <v>0.0460645447778775</v>
+        <v>0.01899552360285055</v>
       </c>
       <c r="T25">
-        <v>0.0460645447778775</v>
+        <v>0.01899552360285055</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H26">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I26">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J26">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N26">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O26">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P26">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q26">
-        <v>27.14097989601666</v>
+        <v>34.90788327402589</v>
       </c>
       <c r="R26">
-        <v>244.26881906415</v>
+        <v>314.170949466233</v>
       </c>
       <c r="S26">
-        <v>0.05767159427754393</v>
+        <v>0.0605557470875852</v>
       </c>
       <c r="T26">
-        <v>0.05767159427754395</v>
+        <v>0.0605557470875852</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H27">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I27">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J27">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>44.512854</v>
       </c>
       <c r="O27">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P27">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q27">
-        <v>15.58442004330333</v>
+        <v>25.53345836560733</v>
       </c>
       <c r="R27">
-        <v>140.25978038973</v>
+        <v>229.801125290466</v>
       </c>
       <c r="S27">
-        <v>0.03311517687392423</v>
+        <v>0.04429365237993654</v>
       </c>
       <c r="T27">
-        <v>0.03311517687392423</v>
+        <v>0.04429365237993655</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H28">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I28">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J28">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N28">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O28">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P28">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q28">
-        <v>10.18412017294555</v>
+        <v>24.92238224521378</v>
       </c>
       <c r="R28">
-        <v>91.65708155650999</v>
+        <v>224.301440206924</v>
       </c>
       <c r="S28">
-        <v>0.02164013417857719</v>
+        <v>0.04323360039376101</v>
       </c>
       <c r="T28">
-        <v>0.02164013417857719</v>
+        <v>0.04323360039376101</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H29">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I29">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J29">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N29">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O29">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P29">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q29">
-        <v>16.04105663693444</v>
+        <v>6.512258988104779</v>
       </c>
       <c r="R29">
-        <v>144.36950973241</v>
+        <v>58.61033089294301</v>
       </c>
       <c r="S29">
-        <v>0.03408547936340944</v>
+        <v>0.01129701005233841</v>
       </c>
       <c r="T29">
-        <v>0.03408547936340944</v>
+        <v>0.01129701005233841</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H30">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I30">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J30">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N30">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O30">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P30">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q30">
-        <v>5.60340250474111</v>
+        <v>6.970016263736445</v>
       </c>
       <c r="R30">
-        <v>50.43062254266999</v>
+        <v>62.730146373628</v>
       </c>
       <c r="S30">
-        <v>0.01190661343346085</v>
+        <v>0.01209109526206177</v>
       </c>
       <c r="T30">
-        <v>0.01190661343346085</v>
+        <v>0.01209109526206177</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H31">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I31">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J31">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N31">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O31">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P31">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q31">
-        <v>30.65509380926388</v>
+        <v>11.57345640894255</v>
       </c>
       <c r="R31">
-        <v>275.895844283375</v>
+        <v>104.161107680483</v>
       </c>
       <c r="S31">
-        <v>0.06513869946778837</v>
+        <v>0.02007682029092251</v>
       </c>
       <c r="T31">
-        <v>0.06513869946778837</v>
+        <v>0.0200768202909225</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H32">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I32">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J32">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N32">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O32">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P32">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q32">
-        <v>43.21032599839</v>
+        <v>32.47389609230567</v>
       </c>
       <c r="R32">
-        <v>388.8929339855101</v>
+        <v>292.265064830751</v>
       </c>
       <c r="S32">
-        <v>0.09181718564057062</v>
+        <v>0.05633343687090285</v>
       </c>
       <c r="T32">
-        <v>0.09181718564057063</v>
+        <v>0.05633343687090286</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H33">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I33">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J33">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>44.512854</v>
       </c>
       <c r="O33">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P33">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q33">
-        <v>24.811479657218</v>
+        <v>23.753112365278</v>
       </c>
       <c r="R33">
-        <v>223.303316914962</v>
+        <v>213.778011287502</v>
       </c>
       <c r="S33">
-        <v>0.05272166272915665</v>
+        <v>0.04120523303127452</v>
       </c>
       <c r="T33">
-        <v>0.05272166272915665</v>
+        <v>0.04120523303127453</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H34">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I34">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J34">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N34">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O34">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P34">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q34">
-        <v>16.21382700129934</v>
+        <v>23.18464414042533</v>
       </c>
       <c r="R34">
-        <v>145.924443011694</v>
+        <v>208.661797263828</v>
       </c>
       <c r="S34">
-        <v>0.03445259736707069</v>
+        <v>0.04021909423330505</v>
       </c>
       <c r="T34">
-        <v>0.03445259736707069</v>
+        <v>0.04021909423330505</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H35">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I35">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J35">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N35">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O35">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P35">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q35">
-        <v>25.53847684557267</v>
+        <v>6.058185196902333</v>
       </c>
       <c r="R35">
-        <v>229.846291610154</v>
+        <v>54.523666772121</v>
       </c>
       <c r="S35">
-        <v>0.05426645171792337</v>
+        <v>0.01050931469300347</v>
       </c>
       <c r="T35">
-        <v>0.05426645171792337</v>
+        <v>0.01050931469300347</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H36">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I36">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J36">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N36">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O36">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P36">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q36">
-        <v>8.921006163288668</v>
+        <v>6.484024887257334</v>
       </c>
       <c r="R36">
-        <v>80.28905546959801</v>
+        <v>58.35622398531601</v>
       </c>
       <c r="S36">
-        <v>0.01895615596665181</v>
+        <v>0.01124803151483324</v>
       </c>
       <c r="T36">
-        <v>0.01895615596665181</v>
+        <v>0.01124803151483324</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H37">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I37">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J37">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N37">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O37">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P37">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q37">
-        <v>48.80503954110834</v>
+        <v>10.76648555005566</v>
       </c>
       <c r="R37">
-        <v>439.2453558699751</v>
+        <v>96.89836995050099</v>
       </c>
       <c r="S37">
-        <v>0.1037053359863172</v>
+        <v>0.0186769438545828</v>
       </c>
       <c r="T37">
-        <v>0.1037053359863172</v>
+        <v>0.0186769438545828</v>
       </c>
     </row>
   </sheetData>
